--- a/Examples/ANP_USEconomy_Prediction2008/Economy2008_results.xlsx
+++ b/Examples/ANP_USEconomy_Prediction2008/Economy2008_results.xlsx
@@ -13,6 +13,7 @@
     <sheet name="limit matrix" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="limitingPriorities" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="localPriorities" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Graph Model1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -284,6 +285,39 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="49196625" cy="2790825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="49949100" cy="2790825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -6563,9 +6597,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I18">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6581,9 +6629,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:J37">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6599,9 +6661,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J55">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6617,9 +6693,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:H71">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6635,9 +6725,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86:J89">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6653,9 +6757,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:J107">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6671,9 +6789,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122:J125">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6689,9 +6821,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140:J143">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6707,9 +6853,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K158:K162">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6725,9 +6885,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177:J180">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6743,9 +6917,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J195:J198">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6761,9 +6949,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J213:J216">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6779,9 +6981,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I231:I233">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -6797,6 +7013,13 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I247:I249">
     <cfRule type="dataBar" priority="1">
@@ -6806,9 +7029,23 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I255:I257">
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -13676,4 +13913,23 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>